--- a/src/format.xlsx
+++ b/src/format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>HCLA- Candidate Submission Details</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Serghei</t>
+  </si>
+  <si>
+    <t>Buciuscan</t>
   </si>
 </sst>
 </file>
@@ -738,7 +741,7 @@
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>41</v>
